--- a/ProbePython.xlsx
+++ b/ProbePython.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alonso/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alonso/Desktop/Python/SNOMEDCT_OPAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0FB37C-EB1E-2142-B69D-DD1C2BBEC079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4885EC-D142-1F40-8411-DAE7AB5282EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29700" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3170,7 +3170,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="AN5" sqref="AN5"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -11554,18 +11554,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11588,18 +11588,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32DB590D-C529-4F92-BB4F-2745F040C536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1958615-B623-444E-89F4-A13C41B997FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32DB590D-C529-4F92-BB4F-2745F040C536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>